--- a/bug或缺陷记录.xlsx
+++ b/bug或缺陷记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>版本号</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>session不同步，打开两个窗口，session覆盖</t>
+  </si>
+  <si>
+    <t>私信过少，所有私信页面显示错误</t>
+  </si>
+  <si>
+    <t>2.6</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +550,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/bug或缺陷记录.xlsx
+++ b/bug或缺陷记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>版本号</t>
   </si>
@@ -54,9 +54,6 @@
     <t>解决方案</t>
   </si>
   <si>
-    <t>显示三个，增加显示全部功能</t>
-  </si>
-  <si>
     <t>是否解决</t>
   </si>
   <si>
@@ -88,6 +85,15 @@
   </si>
   <si>
     <t>2.6</t>
+  </si>
+  <si>
+    <t>显示四个，增加显示全部功能</t>
+  </si>
+  <si>
+    <t>将注册栏固定高度</t>
+  </si>
+  <si>
+    <t>显示三个，增加更多按钮，固定高度，多于三个另一页浮动显示</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,8 +143,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +435,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,11 +449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -450,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -459,112 +471,128 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="6">
+        <v>42741</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <v>42746</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5">
-        <v>42741</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/bug或缺陷记录.xlsx
+++ b/bug或缺陷记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>版本号</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>显示三个，增加更多按钮，固定高度，多于三个另一页浮动显示</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>图书电影页面，点击已读，已看后页面数据不刷新</t>
+  </si>
+  <si>
+    <t>回复私信页面显示错误</t>
+  </si>
+  <si>
+    <t>查看其他用户信息图书显示错误</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>用户点击自己用户名链接显示问题</t>
   </si>
 </sst>
 </file>
@@ -129,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +616,86 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/bug或缺陷记录.xlsx
+++ b/bug或缺陷记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>版本号</t>
   </si>
@@ -94,24 +94,6 @@
   </si>
   <si>
     <t>显示三个，增加更多按钮，固定高度，多于三个另一页浮动显示</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>图书电影页面，点击已读，已看后页面数据不刷新</t>
-  </si>
-  <si>
-    <t>回复私信页面显示错误</t>
-  </si>
-  <si>
-    <t>查看其他用户信息图书显示错误</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>用户点击自己用户名链接显示问题</t>
   </si>
 </sst>
 </file>
@@ -147,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,9 +151,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,86 +595,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="8">
-        <v>42757</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8">
-        <v>42757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8">
-        <v>42757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8">
-        <v>42757</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/bug或缺陷记录.xlsx
+++ b/bug或缺陷记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>版本号</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>用户点击自己用户名链接显示问题</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>个人信息页面关注人与粉丝链接错误</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +702,26 @@
         <v>42757</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
